--- a/biology/Botanique/Salix_aegyptiaca/Salix_aegyptiaca.xlsx
+++ b/biology/Botanique/Salix_aegyptiaca/Salix_aegyptiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix acutifolia
 Salix aegyptiaca, le Saule d'Égypte, est une espèce de plantes à fleurs de la famille des salicaceae. C'est un saule natif du sud-ouest de l'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix est le nom générique latin pour le saule[1], aegyptiaca fait référence à l'une de ses localisations l'Égypte. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix est le nom générique latin pour le saule, aegyptiaca fait référence à l'une de ses localisations l'Égypte. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste (ou un arbre) qui peut atteindre  2,5 à 10 m de hauteur.
-Avec un pétiole de 4 à 12 mm, les feuilles caduques, d'ovales à elliptico-lancéolées, de 5 à 15 x 3 à 6 cm, avec une largeur d'à peu près la moitié de la longueur, sont garnies de pilosité grise. Après la fleur femelle de 4-6 x 1-1,5 cm, se forme le fruit qui est une capsule de 7 à 9 mm[2].
+Avec un pétiole de 4 à 12 mm, les feuilles caduques, d'ovales à elliptico-lancéolées, de 5 à 15 x 3 à 6 cm, avec une largeur d'à peu près la moitié de la longueur, sont garnies de pilosité grise. Après la fleur femelle de 4-6 x 1-1,5 cm, se forme le fruit qui est une capsule de 7 à 9 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre l'espèce en Turquie, en Anatolie (Province de Bitlis, Hakkari), en Transcaucasie (Zanguezour), Karabagh (Azerbaïdjan), nord de Iran ; elle se cultive en Égypte, Irak, Afghanistan et au Pakistan.
 </t>
@@ -606,11 +624,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Salix aegyptiaca est décrit par Carl von Linné et fait l'objet d'une publication dans Centuria I. Plantarum... 1: 33, en 1755[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Salix aegyptiaca est décrit par Carl von Linné et fait l'objet d'une publication dans Centuria I. Plantarum... 1: 33, en 1755.
 Synonyme
-Salix phlomoides M.Bieb.[4].</t>
+Salix phlomoides M.Bieb..</t>
         </is>
       </c>
     </row>
